--- a/src/Keyboard Designs.xlsx
+++ b/src/Keyboard Designs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="370">
   <si>
     <t>A</t>
   </si>
@@ -1118,28 +1118,20 @@
     <t>SETTINGS</t>
   </si>
   <si>
-    <t>ALT ALPHA 1
-Ă→Ĥ</t>
-  </si>
-  <si>
-    <t>ALT ALPHA 2
-Ị→Ř</t>
-  </si>
-  <si>
-    <t>ALT ALPHA 3
-Ş→Ž</t>
+    <t>BACK TO ALPHA
+KEYBOARD (ABC)</t>
+  </si>
+  <si>
+    <t>ALT ALPHA
+Ă → Ž</t>
   </si>
   <si>
     <t>CURRENCY
-SYMBOLS 1</t>
-  </si>
-  <si>
-    <t>CURRENCY
-SYMBOLS 2</t>
-  </si>
-  <si>
-    <t>PUBLISH
-ONLY KEYS</t>
+£ → €</t>
+  </si>
+  <si>
+    <t>PUBLISH ONLY
+F1 → ESC</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1502,16 +1494,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1520,28 +1530,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1551,12 +1549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,53 +1584,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1664,40 +1638,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5400,10 +5401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AW90"/>
+  <dimension ref="A2:AW88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75:M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5420,44 +5421,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="29" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="33"/>
+      <c r="W3" s="30"/>
       <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
@@ -5598,46 +5599,46 @@
         <v>33</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="73" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="51"/>
       <c r="Z6" s="6" t="s">
         <v>90</v>
       </c>
@@ -5661,50 +5662,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="50" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="70" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="70" t="s">
+      <c r="U7" s="49"/>
+      <c r="V7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="72"/>
+      <c r="W7" s="49"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
       <c r="AH7" s="12"/>
@@ -5723,44 +5724,44 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="73" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="49" t="s">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="69" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="70" t="s">
+      <c r="S8" s="52"/>
+      <c r="T8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="72"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="49"/>
       <c r="X8" s="12"/>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12"/>
@@ -5820,44 +5821,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="29" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="29" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="29" t="s">
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="29" t="s">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="32" t="s">
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="33"/>
+      <c r="W11" s="30"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AH11" s="12"/>
@@ -5929,22 +5930,22 @@
       <c r="AV12" s="12"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25">
+      <c r="B13" s="70">
         <v>1</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25">
+      <c r="C13" s="71"/>
+      <c r="D13" s="70">
         <v>2</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="71"/>
       <c r="F13" s="23">
         <v>3</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="27">
+      <c r="H13" s="72">
         <v>4</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="23">
         <v>5</v>
       </c>
@@ -5969,10 +5970,10 @@
         <v>0</v>
       </c>
       <c r="U13" s="24"/>
-      <c r="V13" s="18" t="s">
+      <c r="V13" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="W13" s="18"/>
+      <c r="W13" s="22"/>
       <c r="X13" s="12"/>
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
@@ -5995,50 +5996,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="68" t="s">
+      <c r="G14" s="56"/>
+      <c r="H14" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
+      <c r="I14" s="56"/>
+      <c r="J14" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="63" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="63" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="63" t="s">
+      <c r="Q14" s="58"/>
+      <c r="R14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="64"/>
-      <c r="T14" s="63" t="s">
+      <c r="S14" s="58"/>
+      <c r="T14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="64"/>
-      <c r="V14" s="65" t="s">
+      <c r="U14" s="58"/>
+      <c r="V14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="59"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AH14" s="12"/>
@@ -6060,55 +6061,55 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="61" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="61" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="61" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
+      <c r="O15" s="22"/>
+      <c r="P15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="50" t="s">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50" t="s">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="50"/>
+      <c r="W15" s="18"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
       <c r="AE15" s="12"/>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
@@ -6130,44 +6131,44 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="58" t="s">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60" t="s">
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="50"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12"/>
@@ -6234,44 +6235,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="29" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="29" t="s">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="32" t="s">
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="33"/>
+      <c r="W19" s="30"/>
       <c r="Y19" s="12"/>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
@@ -6357,50 +6358,50 @@
       <c r="AV20" s="12"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="26"/>
+      <c r="H21" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="19" t="s">
+      <c r="I21" s="46"/>
+      <c r="J21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="26"/>
+      <c r="L21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="M21" s="22"/>
-      <c r="N21" s="19" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="O21" s="20"/>
-      <c r="P21" s="19" t="s">
+      <c r="O21" s="26"/>
+      <c r="P21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19" t="s">
+      <c r="Q21" s="26"/>
+      <c r="R21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="S21" s="20"/>
-      <c r="T21" s="19" t="s">
+      <c r="S21" s="26"/>
+      <c r="T21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="U21" s="20"/>
-      <c r="V21" s="18" t="s">
+      <c r="U21" s="26"/>
+      <c r="V21" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="W21" s="18"/>
+      <c r="W21" s="22"/>
       <c r="X21" s="12"/>
       <c r="AT21" s="12"/>
       <c r="AU21" s="12"/>
@@ -6409,50 +6410,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
+      <c r="K22" s="22"/>
+      <c r="L22" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="57" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18" t="s">
+      <c r="S22" s="22"/>
+      <c r="T22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="49" t="s">
+      <c r="U22" s="22"/>
+      <c r="V22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="49"/>
+      <c r="W22" s="21"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
       <c r="AC22" s="12"/>
@@ -6473,50 +6474,50 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="19" t="s">
+      <c r="G23" s="26"/>
+      <c r="H23" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="26"/>
+      <c r="J23" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="50" t="s">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50" t="s">
+      <c r="S23" s="18"/>
+      <c r="T23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50" t="s">
+      <c r="U23" s="18"/>
+      <c r="V23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="50"/>
+      <c r="W23" s="18"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="12"/>
@@ -6540,44 +6541,44 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="57" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="49" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="57" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="18" t="s">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="50" t="s">
+      <c r="S24" s="22"/>
+      <c r="T24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
       <c r="X24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
@@ -6644,44 +6645,44 @@
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="29" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="29" t="s">
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="29" t="s">
+      <c r="H27" s="32"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="29" t="s">
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N27" s="30"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="29" t="s">
+      <c r="N27" s="32"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="29" t="s">
+      <c r="Q27" s="32"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32" t="s">
+      <c r="T27" s="32"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W27" s="33"/>
+      <c r="W27" s="30"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="14"/>
@@ -6779,18 +6780,18 @@
         <v>213</v>
       </c>
       <c r="G29" s="24"/>
-      <c r="H29" s="78" t="s">
+      <c r="H29" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="I29" s="79"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="23" t="s">
         <v>215</v>
       </c>
       <c r="K29" s="24"/>
-      <c r="L29" s="78" t="s">
+      <c r="L29" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="M29" s="79"/>
+      <c r="M29" s="28"/>
       <c r="N29" s="23" t="s">
         <v>217</v>
       </c>
@@ -6819,50 +6820,50 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="25" t="s">
         <v>221</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="26"/>
+      <c r="D30" s="25" t="s">
         <v>222</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
+      <c r="G30" s="26"/>
+      <c r="H30" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="22"/>
-      <c r="J30" s="19" t="s">
+      <c r="I30" s="46"/>
+      <c r="J30" s="25" t="s">
         <v>224</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="26"/>
+      <c r="L30" s="45" t="s">
         <v>225</v>
       </c>
-      <c r="M30" s="22"/>
-      <c r="N30" s="19" t="s">
+      <c r="M30" s="46"/>
+      <c r="N30" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="19" t="s">
+      <c r="O30" s="26"/>
+      <c r="P30" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="18" t="s">
+      <c r="Q30" s="26"/>
+      <c r="R30" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18" t="s">
+      <c r="S30" s="22"/>
+      <c r="T30" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="U30" s="18"/>
-      <c r="V30" s="49" t="s">
+      <c r="U30" s="22"/>
+      <c r="V30" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W30" s="49"/>
+      <c r="W30" s="21"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="14"/>
@@ -6883,56 +6884,56 @@
     </row>
     <row r="31" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="22"/>
+      <c r="D31" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18" t="s">
+      <c r="I31" s="22"/>
+      <c r="J31" s="22" t="s">
         <v>235</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="19" t="s">
+      <c r="K31" s="22"/>
+      <c r="L31" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="M31" s="20"/>
-      <c r="N31" s="19" t="s">
+      <c r="M31" s="26"/>
+      <c r="N31" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="19" t="s">
+      <c r="O31" s="26"/>
+      <c r="P31" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="50" t="s">
+      <c r="Q31" s="26"/>
+      <c r="R31" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50" t="s">
+      <c r="S31" s="18"/>
+      <c r="T31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50" t="s">
+      <c r="U31" s="18"/>
+      <c r="V31" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="50"/>
+      <c r="W31" s="18"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="14"/>
@@ -6954,44 +6955,44 @@
     </row>
     <row r="32" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="48"/>
-      <c r="H32" s="57" t="s">
+      <c r="G32" s="19"/>
+      <c r="H32" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="49" t="s">
+      <c r="I32" s="20"/>
+      <c r="J32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="57" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57" t="s">
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="S32" s="57"/>
-      <c r="T32" s="50" t="s">
+      <c r="S32" s="20"/>
+      <c r="T32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="50"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
       <c r="X32" s="14"/>
       <c r="Z32" s="14"/>
       <c r="AA32" s="14"/>
@@ -7058,31 +7059,33 @@
     </row>
     <row r="35" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80" t="s">
-        <v>365</v>
-      </c>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="80"/>
-      <c r="T35" s="80"/>
-      <c r="U35" s="80"/>
-      <c r="V35" s="80"/>
+      <c r="B35" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="AF35" s="14"/>
@@ -7103,27 +7106,27 @@
     </row>
     <row r="36" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="80"/>
-      <c r="S36" s="80"/>
-      <c r="T36" s="80"/>
-      <c r="U36" s="80"/>
-      <c r="V36" s="80"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="AF36" s="14"/>
@@ -7143,38 +7146,39 @@
       <c r="AT36" s="14"/>
     </row>
     <row r="37" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="58" t="s">
-        <v>370</v>
-      </c>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="58" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q37" s="80"/>
-      <c r="R37" s="80"/>
-      <c r="S37" s="80"/>
-      <c r="T37" s="80"/>
-      <c r="U37" s="80"/>
-      <c r="V37" s="80"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
@@ -7182,77 +7186,77 @@
       <c r="AG37" s="14"/>
       <c r="AH37" s="14"/>
       <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="14"/>
+      <c r="AS37" s="14"/>
+      <c r="AT37" s="14"/>
     </row>
     <row r="38" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-      <c r="Q38" s="80"/>
-      <c r="R38" s="80"/>
-      <c r="S38" s="80"/>
-      <c r="T38" s="80"/>
-      <c r="U38" s="80"/>
-      <c r="V38" s="80"/>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
       <c r="AG38" s="14"/>
       <c r="AH38" s="14"/>
       <c r="AI38" s="14"/>
-    </row>
-    <row r="39" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="58" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80"/>
-      <c r="S39" s="80"/>
-      <c r="T39" s="80"/>
-      <c r="U39" s="80"/>
-      <c r="V39" s="80"/>
+      <c r="AJ38" s="14"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="14"/>
+      <c r="AS38" s="14"/>
+      <c r="AT38" s="14"/>
+    </row>
+    <row r="39" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
       <c r="AE39" s="14"/>
@@ -7271,62 +7275,55 @@
       <c r="AR39" s="14"/>
       <c r="AS39" s="14"/>
       <c r="AT39" s="14"/>
-    </row>
-    <row r="40" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="80"/>
-      <c r="V40" s="80"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="14"/>
-      <c r="AN40" s="14"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-    </row>
-    <row r="41" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="X41" s="14"/>
+      <c r="AU39" s="14"/>
+      <c r="AV39" s="14"/>
+      <c r="AW39" s="14"/>
+    </row>
+    <row r="40" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3"/>
+      <c r="B41" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N41" s="32"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T41" s="32"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W41" s="30"/>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
@@ -7351,114 +7348,163 @@
       <c r="AT41" s="14"/>
       <c r="AU41" s="14"/>
       <c r="AV41" s="14"/>
-      <c r="AW41" s="14"/>
-    </row>
-    <row r="42" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" s="33"/>
-      <c r="D43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="T43" s="30"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W43" s="33"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="14"/>
-      <c r="AN43" s="14"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
+    </row>
+    <row r="42" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3"/>
+      <c r="B42" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U42" s="42"/>
+      <c r="V42" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W42" s="44"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+    </row>
+    <row r="43" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G43" s="26"/>
+      <c r="H43" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" s="46"/>
+      <c r="J43" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K43" s="26"/>
+      <c r="L43" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="M43" s="46"/>
+      <c r="N43" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="O43" s="26"/>
+      <c r="P43" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="S43" s="26"/>
+      <c r="T43" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="U43" s="26"/>
+      <c r="V43" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="W43" s="22"/>
+      <c r="X43" s="14"/>
       <c r="AT43" s="14"/>
       <c r="AU43" s="14"/>
       <c r="AV43" s="14"/>
-    </row>
-    <row r="44" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW43" s="14"/>
+    </row>
+    <row r="44" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
-      <c r="B44" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="39"/>
-      <c r="Q44" s="39"/>
-      <c r="R44" s="39"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="U44" s="42"/>
-      <c r="V44" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W44" s="44"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
+      <c r="B44" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="M44" s="22"/>
+      <c r="N44" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="O44" s="20"/>
+      <c r="P44" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="U44" s="22"/>
+      <c r="V44" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W44" s="21"/>
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
@@ -7476,117 +7522,122 @@
       <c r="AO44" s="14"/>
       <c r="AP44" s="14"/>
       <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
     </row>
     <row r="45" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21" t="s">
-        <v>242</v>
+      <c r="A45" s="3"/>
+      <c r="B45" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22" t="s">
+        <v>258</v>
       </c>
       <c r="I45" s="22"/>
-      <c r="J45" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="21" t="s">
-        <v>243</v>
+      <c r="J45" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22" t="s">
+        <v>48</v>
       </c>
       <c r="M45" s="22"/>
-      <c r="N45" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="O45" s="20"/>
-      <c r="P45" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="S45" s="20"/>
-      <c r="T45" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="U45" s="20"/>
+      <c r="N45" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" s="18"/>
       <c r="V45" s="18" t="s">
-        <v>170</v>
+        <v>43</v>
       </c>
       <c r="W45" s="18"/>
-      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="17"/>
+      <c r="AD45" s="17"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="14"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
       <c r="AT45" s="14"/>
       <c r="AU45" s="14"/>
       <c r="AV45" s="14"/>
-      <c r="AW45" s="14"/>
     </row>
     <row r="46" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="M46" s="18"/>
-      <c r="N46" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="O46" s="57"/>
-      <c r="P46" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="S46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="S46" s="22"/>
       <c r="T46" s="18" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="U46" s="18"/>
-      <c r="V46" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W46" s="49"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+      <c r="X46" s="14"/>
+      <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
-      <c r="AD46" s="14"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
       <c r="AK46" s="14"/>
@@ -7596,59 +7647,32 @@
       <c r="AO46" s="14"/>
       <c r="AP46" s="14"/>
       <c r="AQ46" s="14"/>
-    </row>
-    <row r="47" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W47" s="50"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+    </row>
+    <row r="47" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
-      <c r="AC47" s="56"/>
-      <c r="AD47" s="56"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="14"/>
       <c r="AE47" s="14"/>
       <c r="AF47" s="14"/>
       <c r="AG47" s="14"/>
@@ -7667,80 +7691,53 @@
       <c r="AT47" s="14"/>
       <c r="AU47" s="14"/>
       <c r="AV47" s="14"/>
-    </row>
-    <row r="48" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="57" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="S48" s="18"/>
-      <c r="T48" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
-      <c r="W48" s="50"/>
-      <c r="X48" s="14"/>
-      <c r="Z48" s="14"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AI48" s="14"/>
-      <c r="AJ48" s="14"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
-      <c r="AN48" s="14"/>
-      <c r="AO48" s="14"/>
-      <c r="AP48" s="14"/>
-      <c r="AQ48" s="14"/>
-      <c r="AR48" s="14"/>
-      <c r="AS48" s="14"/>
-      <c r="AT48" s="14"/>
-      <c r="AU48" s="14"/>
-      <c r="AV48" s="14"/>
-    </row>
-    <row r="49" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="X49" s="14"/>
+      <c r="AW47" s="14"/>
+    </row>
+    <row r="48" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="32"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N49" s="32"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T49" s="32"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W49" s="30"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="14"/>
       <c r="AA49" s="14"/>
@@ -7765,114 +7762,143 @@
       <c r="AT49" s="14"/>
       <c r="AU49" s="14"/>
       <c r="AV49" s="14"/>
-      <c r="AW49" s="14"/>
-    </row>
-    <row r="50" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="51" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="3"/>
-      <c r="B51" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="33"/>
-      <c r="D51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N51" s="30"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="T51" s="30"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W51" s="33"/>
-      <c r="Y51" s="14"/>
-      <c r="Z51" s="14"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="14"/>
-      <c r="AD51" s="14"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="14"/>
-      <c r="AN51" s="14"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="14"/>
+    </row>
+    <row r="50" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3"/>
+      <c r="B50" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="37"/>
+      <c r="F50" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="39"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U50" s="42"/>
+      <c r="V50" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W50" s="44"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AC50" s="14"/>
+      <c r="AD50" s="14"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14"/>
+      <c r="AN50" s="14"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+    </row>
+    <row r="51" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="K51" s="26"/>
+      <c r="L51" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="M51" s="26"/>
+      <c r="N51" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="O51" s="24"/>
+      <c r="P51" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="S51" s="24"/>
+      <c r="T51" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="U51" s="24"/>
+      <c r="V51" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="W51" s="22"/>
+      <c r="X51" s="14"/>
       <c r="AT51" s="14"/>
       <c r="AU51" s="14"/>
       <c r="AV51" s="14"/>
-    </row>
-    <row r="52" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW51" s="14"/>
+    </row>
+    <row r="52" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
-      <c r="B52" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="39"/>
-      <c r="O52" s="39"/>
-      <c r="P52" s="39"/>
-      <c r="Q52" s="39"/>
-      <c r="R52" s="39"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="U52" s="42"/>
-      <c r="V52" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W52" s="44"/>
-      <c r="Y52" s="14"/>
-      <c r="Z52" s="14"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W52" s="21"/>
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
       <c r="AC52" s="14"/>
@@ -7890,97 +7916,102 @@
       <c r="AO52" s="14"/>
       <c r="AP52" s="14"/>
       <c r="AQ52" s="14"/>
-      <c r="AR52" s="14"/>
-      <c r="AS52" s="14"/>
-      <c r="AT52" s="14"/>
-      <c r="AU52" s="14"/>
-      <c r="AV52" s="14"/>
     </row>
     <row r="53" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="78" t="s">
-        <v>265</v>
-      </c>
-      <c r="C53" s="79"/>
-      <c r="D53" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="78" t="s">
-        <v>267</v>
-      </c>
-      <c r="G53" s="79"/>
-      <c r="H53" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="24"/>
-      <c r="J53" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="K53" s="20"/>
-      <c r="L53" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="M53" s="20"/>
-      <c r="N53" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="O53" s="24"/>
-      <c r="P53" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="S53" s="24"/>
-      <c r="T53" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="U53" s="24"/>
+      <c r="A53" s="3"/>
+      <c r="B53" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U53" s="18"/>
       <c r="V53" s="18" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="W53" s="18"/>
-      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="17"/>
+      <c r="AD53" s="17"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="14"/>
+      <c r="AN53" s="14"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
       <c r="AT53" s="14"/>
       <c r="AU53" s="14"/>
       <c r="AV53" s="14"/>
-      <c r="AW53" s="14"/>
     </row>
     <row r="54" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
+      <c r="B54" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="22"/>
+      <c r="T54" s="18" t="s">
+        <v>31</v>
+      </c>
       <c r="U54" s="18"/>
-      <c r="V54" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W54" s="49"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="14"/>
+      <c r="Z54" s="14"/>
       <c r="AA54" s="14"/>
       <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
       <c r="AI54" s="14"/>
       <c r="AJ54" s="14"/>
       <c r="AK54" s="14"/>
@@ -7990,45 +8021,32 @@
       <c r="AO54" s="14"/>
       <c r="AP54" s="14"/>
       <c r="AQ54" s="14"/>
-    </row>
-    <row r="55" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W55" s="50"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+    </row>
+    <row r="55" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="14"/>
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
-      <c r="AC55" s="56"/>
-      <c r="AD55" s="56"/>
+      <c r="AC55" s="14"/>
+      <c r="AD55" s="14"/>
       <c r="AE55" s="14"/>
       <c r="AF55" s="14"/>
       <c r="AG55" s="14"/>
@@ -8047,74 +8065,53 @@
       <c r="AT55" s="14"/>
       <c r="AU55" s="14"/>
       <c r="AV55" s="14"/>
-    </row>
-    <row r="56" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K56" s="49"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="57"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
-      <c r="W56" s="50"/>
-      <c r="X56" s="14"/>
-      <c r="Z56" s="14"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AI56" s="14"/>
-      <c r="AJ56" s="14"/>
-      <c r="AK56" s="14"/>
-      <c r="AL56" s="14"/>
-      <c r="AM56" s="14"/>
-      <c r="AN56" s="14"/>
-      <c r="AO56" s="14"/>
-      <c r="AP56" s="14"/>
-      <c r="AQ56" s="14"/>
-      <c r="AR56" s="14"/>
-      <c r="AS56" s="14"/>
-      <c r="AT56" s="14"/>
-      <c r="AU56" s="14"/>
-      <c r="AV56" s="14"/>
-    </row>
-    <row r="57" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="14"/>
-      <c r="M57" s="14"/>
-      <c r="X57" s="14"/>
+      <c r="AW55" s="14"/>
+    </row>
+    <row r="56" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3"/>
+      <c r="B57" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="30"/>
+      <c r="D57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="32"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57" s="32"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q57" s="32"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T57" s="32"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W57" s="30"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
       <c r="AA57" s="14"/>
@@ -8139,114 +8136,163 @@
       <c r="AT57" s="14"/>
       <c r="AU57" s="14"/>
       <c r="AV57" s="14"/>
-      <c r="AW57" s="14"/>
-    </row>
-    <row r="58" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="59" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3"/>
-      <c r="B59" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="33"/>
-      <c r="D59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H59" s="30"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N59" s="30"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="T59" s="30"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W59" s="33"/>
-      <c r="Y59" s="14"/>
-      <c r="Z59" s="14"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
-      <c r="AI59" s="14"/>
-      <c r="AJ59" s="14"/>
-      <c r="AK59" s="14"/>
-      <c r="AL59" s="14"/>
-      <c r="AM59" s="14"/>
-      <c r="AN59" s="14"/>
-      <c r="AO59" s="14"/>
-      <c r="AP59" s="14"/>
-      <c r="AQ59" s="14"/>
-      <c r="AR59" s="14"/>
-      <c r="AS59" s="14"/>
+    </row>
+    <row r="58" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U58" s="42"/>
+      <c r="V58" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W58" s="44"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="14"/>
+      <c r="AD58" s="14"/>
+      <c r="AE58" s="14"/>
+      <c r="AF58" s="14"/>
+      <c r="AG58" s="14"/>
+      <c r="AH58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+      <c r="AK58" s="14"/>
+      <c r="AL58" s="14"/>
+      <c r="AM58" s="14"/>
+      <c r="AN58" s="14"/>
+      <c r="AO58" s="14"/>
+      <c r="AP58" s="14"/>
+      <c r="AQ58" s="14"/>
+      <c r="AR58" s="14"/>
+      <c r="AS58" s="14"/>
+      <c r="AT58" s="14"/>
+      <c r="AU58" s="14"/>
+      <c r="AV58" s="14"/>
+    </row>
+    <row r="59" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="G59" s="28"/>
+      <c r="H59" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="K59" s="26"/>
+      <c r="L59" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="M59" s="26"/>
+      <c r="N59" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="O59" s="24"/>
+      <c r="P59" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="S59" s="24"/>
+      <c r="T59" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="U59" s="24"/>
+      <c r="V59" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="W59" s="22"/>
+      <c r="X59" s="14"/>
       <c r="AT59" s="14"/>
       <c r="AU59" s="14"/>
       <c r="AV59" s="14"/>
-    </row>
-    <row r="60" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW59" s="14"/>
+    </row>
+    <row r="60" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
-      <c r="B60" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C60" s="35"/>
-      <c r="D60" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="37"/>
-      <c r="F60" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="J60" s="39"/>
-      <c r="K60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="U60" s="42"/>
-      <c r="V60" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W60" s="44"/>
-      <c r="Y60" s="14"/>
-      <c r="Z60" s="14"/>
+      <c r="B60" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" s="22"/>
+      <c r="J60" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="K60" s="26"/>
+      <c r="L60" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="M60" s="22"/>
+      <c r="N60" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="O60" s="20"/>
+      <c r="P60" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="U60" s="22"/>
+      <c r="V60" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W60" s="21"/>
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
       <c r="AC60" s="14"/>
@@ -8264,117 +8310,122 @@
       <c r="AO60" s="14"/>
       <c r="AP60" s="14"/>
       <c r="AQ60" s="14"/>
-      <c r="AR60" s="14"/>
-      <c r="AS60" s="14"/>
-      <c r="AT60" s="14"/>
-      <c r="AU60" s="14"/>
-      <c r="AV60" s="14"/>
     </row>
     <row r="61" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="78" t="s">
-        <v>275</v>
-      </c>
-      <c r="C61" s="79"/>
-      <c r="D61" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="78" t="s">
-        <v>277</v>
-      </c>
-      <c r="G61" s="79"/>
-      <c r="H61" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="I61" s="24"/>
-      <c r="J61" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="K61" s="20"/>
-      <c r="L61" s="19" t="s">
-        <v>280</v>
-      </c>
-      <c r="M61" s="20"/>
-      <c r="N61" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="O61" s="24"/>
-      <c r="P61" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="S61" s="24"/>
-      <c r="T61" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="U61" s="24"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U61" s="18"/>
       <c r="V61" s="18" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="W61" s="18"/>
-      <c r="X61" s="14"/>
+      <c r="Y61" s="14"/>
+      <c r="Z61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AC61" s="17"/>
+      <c r="AD61" s="17"/>
+      <c r="AE61" s="14"/>
+      <c r="AF61" s="14"/>
+      <c r="AG61" s="14"/>
+      <c r="AH61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+      <c r="AK61" s="14"/>
+      <c r="AL61" s="14"/>
+      <c r="AM61" s="14"/>
+      <c r="AN61" s="14"/>
+      <c r="AO61" s="14"/>
+      <c r="AP61" s="14"/>
+      <c r="AQ61" s="14"/>
+      <c r="AR61" s="14"/>
+      <c r="AS61" s="14"/>
       <c r="AT61" s="14"/>
       <c r="AU61" s="14"/>
       <c r="AV61" s="14"/>
-      <c r="AW61" s="14"/>
     </row>
     <row r="62" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="K62" s="20"/>
-      <c r="L62" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="M62" s="18"/>
-      <c r="N62" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="O62" s="57"/>
-      <c r="P62" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="S62" s="18"/>
+      <c r="B62" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="S62" s="22"/>
       <c r="T62" s="18" t="s">
-        <v>294</v>
+        <v>31</v>
       </c>
       <c r="U62" s="18"/>
-      <c r="V62" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W62" s="49"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+      <c r="X62" s="14"/>
+      <c r="Z62" s="14"/>
       <c r="AA62" s="14"/>
       <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
       <c r="AI62" s="14"/>
       <c r="AJ62" s="14"/>
       <c r="AK62" s="14"/>
@@ -8384,59 +8435,32 @@
       <c r="AO62" s="14"/>
       <c r="AP62" s="14"/>
       <c r="AQ62" s="14"/>
-    </row>
-    <row r="63" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S63" s="50"/>
-      <c r="T63" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W63" s="50"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="14"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+    </row>
+    <row r="63" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
       <c r="Z63" s="14"/>
       <c r="AA63" s="14"/>
       <c r="AB63" s="14"/>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
+      <c r="AC63" s="14"/>
+      <c r="AD63" s="14"/>
       <c r="AE63" s="14"/>
       <c r="AF63" s="14"/>
       <c r="AG63" s="14"/>
@@ -8455,80 +8479,53 @@
       <c r="AT63" s="14"/>
       <c r="AU63" s="14"/>
       <c r="AV63" s="14"/>
-    </row>
-    <row r="64" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3"/>
-      <c r="B64" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="48"/>
-      <c r="H64" s="57" t="s">
-        <v>302</v>
-      </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K64" s="49"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="57" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="S64" s="18"/>
-      <c r="T64" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
-      <c r="W64" s="50"/>
-      <c r="X64" s="14"/>
-      <c r="Z64" s="14"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
-      <c r="AN64" s="14"/>
-      <c r="AO64" s="14"/>
-      <c r="AP64" s="14"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="14"/>
-      <c r="AT64" s="14"/>
-      <c r="AU64" s="14"/>
-      <c r="AV64" s="14"/>
-    </row>
-    <row r="65" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="14"/>
-      <c r="M65" s="14"/>
-      <c r="X65" s="14"/>
+      <c r="AW63" s="14"/>
+    </row>
+    <row r="64" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="65" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3"/>
+      <c r="B65" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="30"/>
+      <c r="D65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="32"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65" s="32"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N65" s="32"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T65" s="32"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W65" s="30"/>
       <c r="Y65" s="14"/>
       <c r="Z65" s="14"/>
       <c r="AA65" s="14"/>
@@ -8553,114 +8550,163 @@
       <c r="AT65" s="14"/>
       <c r="AU65" s="14"/>
       <c r="AV65" s="14"/>
-      <c r="AW65" s="14"/>
-    </row>
-    <row r="66" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="4" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="67" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3"/>
-      <c r="B67" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E67" s="30"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" s="30"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N67" s="30"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="T67" s="30"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W67" s="33"/>
-      <c r="Y67" s="14"/>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="14"/>
-      <c r="AN67" s="14"/>
-      <c r="AO67" s="14"/>
-      <c r="AP67" s="14"/>
-      <c r="AQ67" s="14"/>
-      <c r="AR67" s="14"/>
-      <c r="AS67" s="14"/>
+    </row>
+    <row r="66" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3"/>
+      <c r="B66" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="37"/>
+      <c r="F66" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
+      <c r="O66" s="39"/>
+      <c r="P66" s="39"/>
+      <c r="Q66" s="39"/>
+      <c r="R66" s="39"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U66" s="42"/>
+      <c r="V66" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W66" s="44"/>
+      <c r="Y66" s="14"/>
+      <c r="Z66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AC66" s="14"/>
+      <c r="AD66" s="14"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+      <c r="AK66" s="14"/>
+      <c r="AL66" s="14"/>
+      <c r="AM66" s="14"/>
+      <c r="AN66" s="14"/>
+      <c r="AO66" s="14"/>
+      <c r="AP66" s="14"/>
+      <c r="AQ66" s="14"/>
+      <c r="AR66" s="14"/>
+      <c r="AS66" s="14"/>
+      <c r="AT66" s="14"/>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="14"/>
+    </row>
+    <row r="67" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="24"/>
+      <c r="F67" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="G67" s="28"/>
+      <c r="H67" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="K67" s="26"/>
+      <c r="L67" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="M67" s="26"/>
+      <c r="N67" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="O67" s="24"/>
+      <c r="P67" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="S67" s="24"/>
+      <c r="T67" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="U67" s="24"/>
+      <c r="V67" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="W67" s="22"/>
+      <c r="X67" s="14"/>
       <c r="AT67" s="14"/>
       <c r="AU67" s="14"/>
       <c r="AV67" s="14"/>
-    </row>
-    <row r="68" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW67" s="14"/>
+    </row>
+    <row r="68" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
-      <c r="B68" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="39"/>
-      <c r="K68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
-      <c r="N68" s="39"/>
-      <c r="O68" s="39"/>
-      <c r="P68" s="39"/>
-      <c r="Q68" s="39"/>
-      <c r="R68" s="39"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="U68" s="42"/>
-      <c r="V68" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W68" s="44"/>
-      <c r="Y68" s="14"/>
-      <c r="Z68" s="14"/>
+      <c r="B68" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="I68" s="22"/>
+      <c r="J68" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="K68" s="26"/>
+      <c r="L68" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="M68" s="22"/>
+      <c r="N68" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="O68" s="20"/>
+      <c r="P68" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q68" s="22"/>
+      <c r="R68" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="U68" s="22"/>
+      <c r="V68" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W68" s="21"/>
       <c r="AA68" s="14"/>
       <c r="AB68" s="14"/>
       <c r="AC68" s="14"/>
@@ -8678,117 +8724,122 @@
       <c r="AO68" s="14"/>
       <c r="AP68" s="14"/>
       <c r="AQ68" s="14"/>
-      <c r="AR68" s="14"/>
-      <c r="AS68" s="14"/>
-      <c r="AT68" s="14"/>
-      <c r="AU68" s="14"/>
-      <c r="AV68" s="14"/>
     </row>
     <row r="69" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" s="79"/>
-      <c r="D69" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="G69" s="79"/>
-      <c r="H69" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="I69" s="24"/>
-      <c r="J69" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="K69" s="20"/>
-      <c r="L69" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="M69" s="20"/>
-      <c r="N69" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="O69" s="24"/>
-      <c r="P69" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="S69" s="24"/>
-      <c r="T69" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="U69" s="24"/>
+      <c r="A69" s="3"/>
+      <c r="B69" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U69" s="18"/>
       <c r="V69" s="18" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="W69" s="18"/>
-      <c r="X69" s="14"/>
+      <c r="Y69" s="14"/>
+      <c r="Z69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
+      <c r="AE69" s="14"/>
+      <c r="AF69" s="14"/>
+      <c r="AG69" s="14"/>
+      <c r="AH69" s="14"/>
+      <c r="AI69" s="14"/>
+      <c r="AJ69" s="14"/>
+      <c r="AK69" s="14"/>
+      <c r="AL69" s="14"/>
+      <c r="AM69" s="14"/>
+      <c r="AN69" s="14"/>
+      <c r="AO69" s="14"/>
+      <c r="AP69" s="14"/>
+      <c r="AQ69" s="14"/>
+      <c r="AR69" s="14"/>
+      <c r="AS69" s="14"/>
       <c r="AT69" s="14"/>
       <c r="AU69" s="14"/>
       <c r="AV69" s="14"/>
-      <c r="AW69" s="14"/>
     </row>
     <row r="70" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
-      <c r="B70" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="K70" s="20"/>
-      <c r="L70" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="M70" s="18"/>
-      <c r="N70" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="O70" s="57"/>
-      <c r="P70" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="S70" s="18"/>
+      <c r="B70" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="19"/>
+      <c r="F70" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" s="19"/>
+      <c r="H70" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="83" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q70" s="83"/>
+      <c r="R70" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="S70" s="22"/>
       <c r="T70" s="18" t="s">
-        <v>327</v>
+        <v>31</v>
       </c>
       <c r="U70" s="18"/>
-      <c r="V70" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W70" s="49"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+      <c r="X70" s="14"/>
+      <c r="Z70" s="14"/>
       <c r="AA70" s="14"/>
       <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
       <c r="AI70" s="14"/>
       <c r="AJ70" s="14"/>
       <c r="AK70" s="14"/>
@@ -8798,59 +8849,32 @@
       <c r="AO70" s="14"/>
       <c r="AP70" s="14"/>
       <c r="AQ70" s="14"/>
-    </row>
-    <row r="71" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18" t="s">
-        <v>331</v>
-      </c>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S71" s="50"/>
-      <c r="T71" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U71" s="50"/>
-      <c r="V71" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W71" s="50"/>
+      <c r="AR70" s="14"/>
+      <c r="AS70" s="14"/>
+      <c r="AT70" s="14"/>
+      <c r="AU70" s="14"/>
+      <c r="AV70" s="14"/>
+    </row>
+    <row r="71" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="14"/>
+      <c r="M71" s="14"/>
+      <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
       <c r="Z71" s="14"/>
       <c r="AA71" s="14"/>
       <c r="AB71" s="14"/>
-      <c r="AC71" s="56"/>
-      <c r="AD71" s="56"/>
+      <c r="AC71" s="14"/>
+      <c r="AD71" s="14"/>
       <c r="AE71" s="14"/>
       <c r="AF71" s="14"/>
       <c r="AG71" s="14"/>
@@ -8869,76 +8893,53 @@
       <c r="AT71" s="14"/>
       <c r="AU71" s="14"/>
       <c r="AV71" s="14"/>
-    </row>
-    <row r="72" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" s="48"/>
-      <c r="H72" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="I72" s="57"/>
-      <c r="J72" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="57"/>
-      <c r="Q72" s="57"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U72" s="50"/>
-      <c r="V72" s="50"/>
-      <c r="W72" s="50"/>
-      <c r="X72" s="14"/>
-      <c r="Z72" s="14"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
-      <c r="AN72" s="14"/>
-      <c r="AO72" s="14"/>
-      <c r="AP72" s="14"/>
-      <c r="AQ72" s="14"/>
-      <c r="AR72" s="14"/>
-      <c r="AS72" s="14"/>
-      <c r="AT72" s="14"/>
-      <c r="AU72" s="14"/>
-      <c r="AV72" s="14"/>
-    </row>
-    <row r="73" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
-      <c r="M73" s="14"/>
-      <c r="X73" s="14"/>
+      <c r="AW71" s="14"/>
+    </row>
+    <row r="72" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3"/>
+      <c r="B73" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="30"/>
+      <c r="D73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="32"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="H73" s="32"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K73" s="32"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="N73" s="32"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="T73" s="32"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="W73" s="30"/>
       <c r="Y73" s="14"/>
       <c r="Z73" s="14"/>
       <c r="AA73" s="14"/>
@@ -8963,114 +8964,163 @@
       <c r="AT73" s="14"/>
       <c r="AU73" s="14"/>
       <c r="AV73" s="14"/>
-      <c r="AW73" s="14"/>
-    </row>
-    <row r="74" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="E75" s="30"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="H75" s="30"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="31"/>
-      <c r="M75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="N75" s="30"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="T75" s="30"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W75" s="33"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="14"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="14"/>
-      <c r="AC75" s="14"/>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="14"/>
-      <c r="AI75" s="14"/>
-      <c r="AJ75" s="14"/>
-      <c r="AK75" s="14"/>
-      <c r="AL75" s="14"/>
-      <c r="AM75" s="14"/>
-      <c r="AN75" s="14"/>
-      <c r="AO75" s="14"/>
-      <c r="AP75" s="14"/>
-      <c r="AQ75" s="14"/>
-      <c r="AR75" s="14"/>
-      <c r="AS75" s="14"/>
+    </row>
+    <row r="74" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="37"/>
+      <c r="F74" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="39"/>
+      <c r="P74" s="39"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="U74" s="42"/>
+      <c r="V74" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W74" s="44"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+      <c r="AK74" s="14"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="14"/>
+      <c r="AN74" s="14"/>
+      <c r="AO74" s="14"/>
+      <c r="AP74" s="14"/>
+      <c r="AQ74" s="14"/>
+      <c r="AR74" s="14"/>
+      <c r="AS74" s="14"/>
+      <c r="AT74" s="14"/>
+      <c r="AU74" s="14"/>
+      <c r="AV74" s="14"/>
+    </row>
+    <row r="75" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C75" s="28"/>
+      <c r="D75" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E75" s="24"/>
+      <c r="F75" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="K75" s="24"/>
+      <c r="L75" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="M75" s="24"/>
+      <c r="N75" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="O75" s="24"/>
+      <c r="P75" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q75" s="24"/>
+      <c r="R75" s="22" t="s">
+        <v>346</v>
+      </c>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="U75" s="22"/>
+      <c r="V75" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="W75" s="22"/>
+      <c r="X75" s="14"/>
       <c r="AT75" s="14"/>
       <c r="AU75" s="14"/>
       <c r="AV75" s="14"/>
-    </row>
-    <row r="76" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AW75" s="14"/>
+    </row>
+    <row r="76" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" s="37"/>
-      <c r="F76" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="G76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="J76" s="39"/>
-      <c r="K76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="39"/>
-      <c r="O76" s="39"/>
-      <c r="P76" s="39"/>
-      <c r="Q76" s="39"/>
-      <c r="R76" s="39"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="U76" s="42"/>
-      <c r="V76" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="W76" s="44"/>
-      <c r="Y76" s="14"/>
-      <c r="Z76" s="14"/>
+      <c r="B76" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="G76" s="26"/>
+      <c r="H76" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="K76" s="82"/>
+      <c r="L76" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="M76" s="26"/>
+      <c r="N76" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="U76" s="22"/>
+      <c r="V76" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="W76" s="21"/>
       <c r="AA76" s="14"/>
       <c r="AB76" s="14"/>
       <c r="AC76" s="14"/>
@@ -9088,117 +9138,112 @@
       <c r="AO76" s="14"/>
       <c r="AP76" s="14"/>
       <c r="AQ76" s="14"/>
-      <c r="AR76" s="14"/>
-      <c r="AS76" s="14"/>
-      <c r="AT76" s="14"/>
-      <c r="AU76" s="14"/>
-      <c r="AV76" s="14"/>
     </row>
     <row r="77" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="78" t="s">
-        <v>336</v>
-      </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="G77" s="79"/>
-      <c r="H77" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="I77" s="24"/>
-      <c r="J77" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="K77" s="20"/>
-      <c r="L77" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="M77" s="20"/>
-      <c r="N77" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="O77" s="24"/>
-      <c r="P77" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="S77" s="24"/>
-      <c r="T77" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="U77" s="24"/>
+      <c r="A77" s="3"/>
+      <c r="B77" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" s="26"/>
+      <c r="H77" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="K77" s="82"/>
+      <c r="L77" s="81" t="s">
+        <v>362</v>
+      </c>
+      <c r="M77" s="82"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="22"/>
+      <c r="Q77" s="22"/>
+      <c r="R77" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U77" s="18"/>
       <c r="V77" s="18" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="W77" s="18"/>
-      <c r="X77" s="14"/>
+      <c r="Y77" s="14"/>
+      <c r="Z77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AC77" s="17"/>
+      <c r="AD77" s="17"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
+      <c r="AH77" s="14"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="14"/>
+      <c r="AK77" s="14"/>
+      <c r="AL77" s="14"/>
+      <c r="AM77" s="14"/>
+      <c r="AN77" s="14"/>
+      <c r="AO77" s="14"/>
+      <c r="AP77" s="14"/>
+      <c r="AQ77" s="14"/>
+      <c r="AR77" s="14"/>
+      <c r="AS77" s="14"/>
       <c r="AT77" s="14"/>
       <c r="AU77" s="14"/>
       <c r="AV77" s="14"/>
-      <c r="AW77" s="14"/>
     </row>
     <row r="78" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
-      <c r="B78" s="18" t="s">
-        <v>346</v>
-      </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18" t="s">
-        <v>347</v>
-      </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="19" t="s">
-        <v>350</v>
-      </c>
-      <c r="K78" s="20"/>
-      <c r="L78" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="M78" s="18"/>
-      <c r="N78" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="O78" s="57"/>
-      <c r="P78" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="S78" s="18"/>
+      <c r="B78" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="19"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="21"/>
+      <c r="P78" s="20"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
       <c r="T78" s="18" t="s">
-        <v>355</v>
+        <v>31</v>
       </c>
       <c r="U78" s="18"/>
-      <c r="V78" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="W78" s="49"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+      <c r="X78" s="14"/>
+      <c r="Z78" s="14"/>
       <c r="AA78" s="14"/>
       <c r="AB78" s="14"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-      <c r="AG78" s="14"/>
-      <c r="AH78" s="14"/>
       <c r="AI78" s="14"/>
       <c r="AJ78" s="14"/>
       <c r="AK78" s="14"/>
@@ -9208,59 +9253,32 @@
       <c r="AO78" s="14"/>
       <c r="AP78" s="14"/>
       <c r="AQ78" s="14"/>
-    </row>
-    <row r="79" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3"/>
-      <c r="B79" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18" t="s">
-        <v>359</v>
-      </c>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S79" s="50"/>
-      <c r="T79" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U79" s="50"/>
-      <c r="V79" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="W79" s="50"/>
+      <c r="AR78" s="14"/>
+      <c r="AS78" s="14"/>
+      <c r="AT78" s="14"/>
+      <c r="AU78" s="14"/>
+      <c r="AV78" s="14"/>
+    </row>
+    <row r="79" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
       <c r="Z79" s="14"/>
       <c r="AA79" s="14"/>
       <c r="AB79" s="14"/>
-      <c r="AC79" s="56"/>
-      <c r="AD79" s="56"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
       <c r="AF79" s="14"/>
       <c r="AG79" s="14"/>
@@ -9279,767 +9297,531 @@
       <c r="AT79" s="14"/>
       <c r="AU79" s="14"/>
       <c r="AV79" s="14"/>
-    </row>
-    <row r="80" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="48"/>
-      <c r="F80" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="48"/>
-      <c r="H80" s="57"/>
-      <c r="I80" s="57"/>
-      <c r="J80" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="57"/>
-      <c r="Q80" s="57"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="U80" s="50"/>
-      <c r="V80" s="50"/>
-      <c r="W80" s="50"/>
-      <c r="X80" s="14"/>
-      <c r="Z80" s="14"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="14"/>
-      <c r="AI80" s="14"/>
-      <c r="AJ80" s="14"/>
-      <c r="AK80" s="14"/>
-      <c r="AL80" s="14"/>
-      <c r="AM80" s="14"/>
-      <c r="AN80" s="14"/>
-      <c r="AO80" s="14"/>
-      <c r="AP80" s="14"/>
-      <c r="AQ80" s="14"/>
-      <c r="AR80" s="14"/>
-      <c r="AS80" s="14"/>
-      <c r="AT80" s="14"/>
-      <c r="AU80" s="14"/>
-      <c r="AV80" s="14"/>
-    </row>
-    <row r="81" spans="1:49" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="X81" s="14"/>
-      <c r="Y81" s="14"/>
-      <c r="Z81" s="14"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
-      <c r="AK81" s="14"/>
-      <c r="AL81" s="14"/>
-      <c r="AM81" s="14"/>
-      <c r="AN81" s="14"/>
-      <c r="AO81" s="14"/>
-      <c r="AP81" s="14"/>
-      <c r="AQ81" s="14"/>
-      <c r="AR81" s="14"/>
-      <c r="AS81" s="14"/>
-      <c r="AT81" s="14"/>
-      <c r="AU81" s="14"/>
-      <c r="AV81" s="14"/>
-      <c r="AW81" s="14"/>
-    </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
+      <c r="AW79" s="14"/>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.3">
+      <c r="B80" s="4" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="81" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="F81" s="76"/>
+      <c r="G81" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="H81" s="76"/>
+      <c r="I81" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J81" s="76"/>
+      <c r="K81" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="L81" s="76"/>
+      <c r="M81" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="N81" s="76"/>
+      <c r="O81" s="76" t="s">
+        <v>99</v>
+      </c>
+      <c r="P81" s="76"/>
+      <c r="Q81" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="R81" s="76"/>
+      <c r="S81" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="T81" s="76"/>
+      <c r="U81" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="V81" s="76"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="AS81" s="12"/>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="12"/>
+      <c r="AW81" s="12"/>
+    </row>
+    <row r="82" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3"/>
+      <c r="B82" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="C82" s="64"/>
+      <c r="D82" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="64"/>
+      <c r="F82" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" s="66"/>
+      <c r="H82" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="I82" s="64"/>
+      <c r="J82" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="K82" s="67"/>
+      <c r="L82" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="M82" s="69"/>
+      <c r="N82" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="O82" s="67"/>
+      <c r="P82" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q82" s="66"/>
+      <c r="R82" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="S82" s="64"/>
+      <c r="T82" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="U82" s="64"/>
+      <c r="V82" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="W82" s="78"/>
+    </row>
     <row r="83" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C83" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="V83" s="15"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="12"/>
-      <c r="AS83" s="12"/>
-      <c r="AT83" s="12"/>
-      <c r="AU83" s="12"/>
-      <c r="AV83" s="12"/>
-      <c r="AW83" s="12"/>
+      <c r="A83" s="3"/>
+      <c r="B83" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="22"/>
+      <c r="D83" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="66"/>
+      <c r="F83" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83" s="66"/>
+      <c r="H83" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="I83" s="66"/>
+      <c r="J83" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="K83" s="64"/>
+      <c r="L83" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="M83" s="64"/>
+      <c r="N83" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="O83" s="64"/>
+      <c r="P83" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q83" s="66"/>
+      <c r="R83" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U83" s="18"/>
+      <c r="V83" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="W83" s="77"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
     </row>
     <row r="84" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
-      <c r="B84" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="46"/>
-      <c r="F84" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="G84" s="17"/>
-      <c r="H84" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I84" s="46"/>
-      <c r="J84" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="K84" s="53"/>
-      <c r="L84" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="M84" s="55"/>
-      <c r="N84" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="O84" s="53"/>
-      <c r="P84" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="S84" s="46"/>
-      <c r="T84" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="U84" s="46"/>
-      <c r="V84" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="W84" s="52"/>
-    </row>
-    <row r="85" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3"/>
-      <c r="B85" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="17"/>
-      <c r="F85" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="G85" s="17"/>
-      <c r="H85" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="K85" s="46"/>
-      <c r="L85" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="M85" s="46"/>
-      <c r="N85" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="O85" s="46"/>
-      <c r="P85" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="S85" s="50"/>
-      <c r="T85" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="U85" s="50"/>
-      <c r="V85" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="W85" s="51"/>
-      <c r="Z85" s="12"/>
-      <c r="AA85" s="12"/>
-      <c r="AB85" s="12"/>
-      <c r="AC85" s="12"/>
-      <c r="AD85" s="12"/>
-    </row>
-    <row r="86" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3"/>
-      <c r="B86" s="48" t="s">
+      <c r="B84" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48" t="s">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48" t="s">
+      <c r="E84" s="19"/>
+      <c r="F84" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G86" s="48"/>
-      <c r="H86" s="45" t="s">
+      <c r="G84" s="19"/>
+      <c r="H84" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="I86" s="46"/>
-      <c r="J86" s="49" t="s">
+      <c r="I84" s="64"/>
+      <c r="J84" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K86" s="49"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="49"/>
-      <c r="O86" s="49"/>
-      <c r="P86" s="16" t="s">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+      <c r="O84" s="21"/>
+      <c r="P84" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="Q86" s="17"/>
-      <c r="R86" s="45" t="s">
+      <c r="Q84" s="66"/>
+      <c r="R84" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="S86" s="46"/>
-      <c r="T86" s="45" t="s">
+      <c r="S84" s="64"/>
+      <c r="T84" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="U86" s="46"/>
-      <c r="V86" s="47" t="s">
+      <c r="U84" s="64"/>
+      <c r="V84" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="W86" s="47"/>
-      <c r="X86" s="12"/>
-      <c r="Z86" s="12"/>
-      <c r="AA86" s="12"/>
-      <c r="AB86" s="12"/>
-      <c r="AC86" s="12"/>
-      <c r="AD86" s="12"/>
-      <c r="AE86" s="12"/>
-      <c r="AF86" s="12"/>
-      <c r="AG86" s="12"/>
-      <c r="AH86" s="12"/>
-    </row>
-    <row r="88" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="4" t="s">
+      <c r="W84" s="47"/>
+      <c r="X84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+    </row>
+    <row r="86" spans="1:49" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="3"/>
-      <c r="B89" s="32" t="s">
+    <row r="87" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="3"/>
+      <c r="B87" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="29" t="s">
+      <c r="C87" s="30"/>
+      <c r="D87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E89" s="30"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="29" t="s">
+      <c r="E87" s="32"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H89" s="30"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="29" t="s">
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K89" s="30"/>
-      <c r="L89" s="31"/>
-      <c r="M89" s="29" t="s">
+      <c r="K87" s="32"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N89" s="30"/>
-      <c r="O89" s="31"/>
-      <c r="P89" s="29" t="s">
+      <c r="N87" s="32"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="31"/>
-      <c r="S89" s="29" t="s">
+      <c r="Q87" s="32"/>
+      <c r="R87" s="33"/>
+      <c r="S87" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T89" s="30"/>
-      <c r="U89" s="31"/>
-      <c r="V89" s="32" t="s">
+      <c r="T87" s="32"/>
+      <c r="U87" s="33"/>
+      <c r="V87" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W89" s="33"/>
-      <c r="Z89" s="12"/>
-      <c r="AA89" s="12"/>
-      <c r="AB89" s="12"/>
-      <c r="AG89" s="12"/>
-      <c r="AH89" s="12"/>
-      <c r="AI89" s="12"/>
-      <c r="AJ89" s="12"/>
-      <c r="AK89" s="12"/>
-      <c r="AL89" s="12"/>
-      <c r="AM89" s="12"/>
-      <c r="AN89" s="12"/>
-      <c r="AO89" s="12"/>
-      <c r="AP89" s="12"/>
-      <c r="AQ89" s="12"/>
-      <c r="AR89" s="12"/>
-      <c r="AS89" s="12"/>
-      <c r="AT89" s="12"/>
-      <c r="AU89" s="12"/>
-      <c r="AV89" s="12"/>
-      <c r="AW89" s="12"/>
-    </row>
-    <row r="90" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="3"/>
-      <c r="B90" s="34" t="s">
+      <c r="W87" s="30"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="12"/>
+      <c r="AM87" s="12"/>
+      <c r="AN87" s="12"/>
+      <c r="AO87" s="12"/>
+      <c r="AP87" s="12"/>
+      <c r="AQ87" s="12"/>
+      <c r="AR87" s="12"/>
+      <c r="AS87" s="12"/>
+      <c r="AT87" s="12"/>
+      <c r="AU87" s="12"/>
+      <c r="AV87" s="12"/>
+      <c r="AW87" s="12"/>
+    </row>
+    <row r="88" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="3"/>
+      <c r="B88" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36" t="s">
+      <c r="C88" s="35"/>
+      <c r="D88" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="37"/>
-      <c r="F90" s="38" t="s">
+      <c r="E88" s="37"/>
+      <c r="F88" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="J90" s="39"/>
-      <c r="K90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
-      <c r="N90" s="39"/>
-      <c r="O90" s="39"/>
-      <c r="P90" s="39"/>
-      <c r="Q90" s="39"/>
-      <c r="R90" s="39"/>
-      <c r="S90" s="40"/>
-      <c r="T90" s="41" t="s">
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+      <c r="O88" s="39"/>
+      <c r="P88" s="39"/>
+      <c r="Q88" s="39"/>
+      <c r="R88" s="39"/>
+      <c r="S88" s="40"/>
+      <c r="T88" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="U90" s="42"/>
-      <c r="V90" s="43" t="s">
+      <c r="U88" s="42"/>
+      <c r="V88" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="W90" s="44"/>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="12"/>
-      <c r="AB90" s="12"/>
-      <c r="AG90" s="12"/>
-      <c r="AH90" s="12"/>
-      <c r="AI90" s="12"/>
-      <c r="AJ90" s="12"/>
-      <c r="AK90" s="12"/>
-      <c r="AL90" s="12"/>
-      <c r="AM90" s="12"/>
-      <c r="AN90" s="12"/>
-      <c r="AO90" s="12"/>
-      <c r="AP90" s="12"/>
-      <c r="AQ90" s="12"/>
-      <c r="AR90" s="12"/>
-      <c r="AS90" s="12"/>
-      <c r="AT90" s="12"/>
-      <c r="AU90" s="12"/>
-      <c r="AV90" s="12"/>
-      <c r="AW90" s="12"/>
+      <c r="W88" s="44"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="12"/>
+      <c r="AM88" s="12"/>
+      <c r="AN88" s="12"/>
+      <c r="AO88" s="12"/>
+      <c r="AP88" s="12"/>
+      <c r="AQ88" s="12"/>
+      <c r="AR88" s="12"/>
+      <c r="AS88" s="12"/>
+      <c r="AT88" s="12"/>
+      <c r="AU88" s="12"/>
+      <c r="AV88" s="12"/>
+      <c r="AW88" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="556">
-    <mergeCell ref="B37:H38"/>
-    <mergeCell ref="I37:O38"/>
-    <mergeCell ref="P37:V38"/>
-    <mergeCell ref="B39:H40"/>
-    <mergeCell ref="I39:O40"/>
-    <mergeCell ref="P39:V40"/>
-    <mergeCell ref="B35:H36"/>
-    <mergeCell ref="I35:O36"/>
-    <mergeCell ref="P35:V36"/>
-    <mergeCell ref="AA39:AB39"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="AC71:AD71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="J67:L67"/>
-    <mergeCell ref="M67:O67"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="AC79:AD79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="T80:W80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="J75:L75"/>
-    <mergeCell ref="M75:O75"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:S76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="AC63:AD63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="M59:O59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="AC55:AD55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:S52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="AC47:AD47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T45:U45"/>
-    <mergeCell ref="V45:W45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="R46:S46"/>
-    <mergeCell ref="T46:U46"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="L45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="R45:S45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:W43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:S44"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="V27:W27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
+  <mergeCells count="553">
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="S81:T81"/>
+    <mergeCell ref="U81:V81"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="S87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:L87"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
@@ -10064,200 +9846,341 @@
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="S89:U89"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:S90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="J89:L89"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="S83:T83"/>
-    <mergeCell ref="U83:V83"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V27:W27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="V41:W41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="V43:W43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T45:U45"/>
+    <mergeCell ref="V45:W45"/>
+    <mergeCell ref="AC45:AD45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:S50"/>
+    <mergeCell ref="T50:U50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AC53:AD53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="M57:O57"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="V57:W57"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="AC61:AD61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:W62"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="M73:O73"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="AC77:AD77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="J78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="J65:L65"/>
+    <mergeCell ref="M65:O65"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="AA37:AB37"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="AC69:AD69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B37:H38"/>
+    <mergeCell ref="I37:O38"/>
+    <mergeCell ref="P37:V38"/>
+    <mergeCell ref="B35:H36"/>
+    <mergeCell ref="I35:O36"/>
+    <mergeCell ref="P35:V36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -10286,44 +10209,44 @@
     </row>
     <row r="3" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="29" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="29" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="29" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="32" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W3" s="33"/>
+      <c r="W3" s="30"/>
       <c r="Z3" s="7" t="s">
         <v>40</v>
       </c>
@@ -10395,46 +10318,46 @@
       <c r="AT4" s="2"/>
     </row>
     <row r="5" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="56"/>
+      <c r="G5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62" t="s">
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62" t="s">
+      <c r="T5" s="56"/>
+      <c r="U5" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="62"/>
+      <c r="V5" s="56"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Z5" s="5" t="s">
@@ -10464,46 +10387,46 @@
         <v>33</v>
       </c>
       <c r="C6" s="47"/>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="22"/>
+      <c r="L6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18" t="s">
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="73" t="s">
+      <c r="U6" s="22"/>
+      <c r="V6" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="W6" s="74"/>
+      <c r="W6" s="51"/>
       <c r="Z6" s="6" t="s">
         <v>90</v>
       </c>
@@ -10527,50 +10450,50 @@
     </row>
     <row r="7" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18" t="s">
+      <c r="O7" s="22"/>
+      <c r="P7" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="50" t="s">
+      <c r="Q7" s="22"/>
+      <c r="R7" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="70" t="s">
+      <c r="S7" s="18"/>
+      <c r="T7" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="V7" s="70" t="s">
+      <c r="U7" s="49"/>
+      <c r="V7" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="W7" s="72"/>
+      <c r="W7" s="49"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AH7" s="1"/>
@@ -10589,44 +10512,44 @@
     </row>
     <row r="8" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="73" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="73" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="49" t="s">
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="69" t="s">
+      <c r="Q8" s="21"/>
+      <c r="R8" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="69"/>
-      <c r="T8" s="70" t="s">
+      <c r="S8" s="52"/>
+      <c r="T8" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="72"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="49"/>
       <c r="X8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -10686,44 +10609,44 @@
     </row>
     <row r="11" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="29" t="s">
+      <c r="H11" s="32"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="29" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="29" t="s">
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="29" t="s">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="32" t="s">
+      <c r="T11" s="32"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W11" s="33"/>
+      <c r="W11" s="30"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AH11" s="1"/>
@@ -10795,46 +10718,46 @@
       <c r="AV12" s="1"/>
     </row>
     <row r="13" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="62">
+      <c r="C13" s="56">
         <v>1</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62">
+      <c r="D13" s="56"/>
+      <c r="E13" s="56">
         <v>2</v>
       </c>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62">
+      <c r="F13" s="56"/>
+      <c r="G13" s="56">
         <v>3</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62">
+      <c r="H13" s="56"/>
+      <c r="I13" s="56">
         <v>4</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62">
+      <c r="J13" s="56"/>
+      <c r="K13" s="56">
         <v>5</v>
       </c>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62">
+      <c r="L13" s="56"/>
+      <c r="M13" s="56">
         <v>6</v>
       </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62">
+      <c r="N13" s="56"/>
+      <c r="O13" s="56">
         <v>7</v>
       </c>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62">
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56">
         <v>8</v>
       </c>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62">
+      <c r="R13" s="56"/>
+      <c r="S13" s="56">
         <v>9</v>
       </c>
-      <c r="T13" s="62"/>
-      <c r="U13" s="62">
+      <c r="T13" s="56"/>
+      <c r="U13" s="56">
         <v>0</v>
       </c>
-      <c r="V13" s="62"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Z13" s="1"/>
@@ -10858,50 +10781,50 @@
     </row>
     <row r="14" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="61"/>
+      <c r="D14" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="67"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="68" t="s">
+      <c r="G14" s="56"/>
+      <c r="H14" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62" t="s">
+      <c r="I14" s="56"/>
+      <c r="J14" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62" t="s">
+      <c r="K14" s="56"/>
+      <c r="L14" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="63" t="s">
+      <c r="M14" s="56"/>
+      <c r="N14" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="64"/>
-      <c r="P14" s="63" t="s">
+      <c r="O14" s="58"/>
+      <c r="P14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="63" t="s">
+      <c r="Q14" s="58"/>
+      <c r="R14" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="S14" s="64"/>
-      <c r="T14" s="63" t="s">
+      <c r="S14" s="58"/>
+      <c r="T14" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="U14" s="64"/>
-      <c r="V14" s="65" t="s">
+      <c r="U14" s="58"/>
+      <c r="V14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="W14" s="65"/>
+      <c r="W14" s="59"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AH14" s="1"/>
@@ -10923,55 +10846,55 @@
     </row>
     <row r="15" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="61" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="K15" s="18"/>
-      <c r="L15" s="61" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="61" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18" t="s">
+      <c r="O15" s="22"/>
+      <c r="P15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="50" t="s">
+      <c r="Q15" s="22"/>
+      <c r="R15" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50" t="s">
+      <c r="U15" s="18"/>
+      <c r="V15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="50"/>
+      <c r="W15" s="18"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -10993,44 +10916,44 @@
     </row>
     <row r="16" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49" t="s">
+      <c r="G16" s="19"/>
+      <c r="H16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49" t="s">
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="58" t="s">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="S16" s="59"/>
-      <c r="T16" s="60" t="s">
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="50"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -11097,44 +11020,44 @@
     </row>
     <row r="19" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29" t="s">
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="29" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N19" s="30"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="29" t="s">
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="29" t="s">
+      <c r="Q19" s="32"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="32" t="s">
+      <c r="T19" s="32"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W19" s="33"/>
+      <c r="W19" s="30"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
@@ -11220,46 +11143,46 @@
       <c r="AV20" s="1"/>
     </row>
     <row r="21" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="26"/>
+      <c r="G21" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="J21" s="22"/>
-      <c r="K21" s="19" t="s">
+      <c r="J21" s="46"/>
+      <c r="K21" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="20"/>
-      <c r="M21" s="21" t="s">
+      <c r="L21" s="26"/>
+      <c r="M21" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="19" t="s">
+      <c r="N21" s="46"/>
+      <c r="O21" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="19" t="s">
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="R21" s="20"/>
-      <c r="S21" s="19" t="s">
+      <c r="R21" s="26"/>
+      <c r="S21" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="T21" s="20"/>
-      <c r="U21" s="19" t="s">
+      <c r="T21" s="26"/>
+      <c r="U21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="V21" s="20"/>
+      <c r="V21" s="26"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Z21" s="1"/>
@@ -11289,50 +11212,50 @@
     </row>
     <row r="22" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="22"/>
+      <c r="D22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="22"/>
+      <c r="J22" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
+      <c r="K22" s="22"/>
+      <c r="L22" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="57" t="s">
+      <c r="M22" s="22"/>
+      <c r="N22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="O22" s="57"/>
-      <c r="P22" s="18" t="s">
+      <c r="O22" s="20"/>
+      <c r="P22" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18" t="s">
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18" t="s">
+      <c r="S22" s="22"/>
+      <c r="T22" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U22" s="18"/>
-      <c r="V22" s="49" t="s">
+      <c r="U22" s="22"/>
+      <c r="V22" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="W22" s="49"/>
+      <c r="W22" s="21"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
@@ -11353,56 +11276,56 @@
     </row>
     <row r="23" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="22"/>
+      <c r="J23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
+      <c r="M23" s="22"/>
+      <c r="N23" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18" t="s">
+      <c r="O23" s="22"/>
+      <c r="P23" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="50" t="s">
+      <c r="Q23" s="22"/>
+      <c r="R23" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50" t="s">
+      <c r="S23" s="18"/>
+      <c r="T23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50" t="s">
+      <c r="U23" s="18"/>
+      <c r="V23" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="W23" s="50"/>
+      <c r="W23" s="18"/>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
@@ -11424,44 +11347,44 @@
     </row>
     <row r="24" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="19"/>
+      <c r="F24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49" t="s">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49" t="s">
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="18" t="s">
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="50" t="s">
+      <c r="S24" s="22"/>
+      <c r="T24" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
       <c r="X24" s="1"/>
       <c r="Y24" t="s">
         <v>133</v>
@@ -11530,46 +11453,46 @@
       </c>
     </row>
     <row r="27" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="76"/>
+      <c r="E27" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="76"/>
+      <c r="G27" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="76"/>
+      <c r="I27" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="76"/>
+      <c r="K27" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15" t="s">
+      <c r="L27" s="76"/>
+      <c r="M27" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15" t="s">
+      <c r="N27" s="76"/>
+      <c r="O27" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15" t="s">
+      <c r="P27" s="76"/>
+      <c r="Q27" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15" t="s">
+      <c r="R27" s="76"/>
+      <c r="S27" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15" t="s">
+      <c r="T27" s="76"/>
+      <c r="U27" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="V27" s="15"/>
+      <c r="V27" s="76"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Z27" s="1"/>
@@ -11599,46 +11522,46 @@
     </row>
     <row r="28" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="16" t="s">
+      <c r="E28" s="66"/>
+      <c r="F28" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="45" t="s">
+      <c r="G28" s="66"/>
+      <c r="H28" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="54" t="s">
+      <c r="I28" s="64"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="45" t="s">
+      <c r="M28" s="69"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="45" t="s">
+      <c r="Q28" s="64"/>
+      <c r="R28" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="S28" s="46"/>
-      <c r="T28" s="45" t="s">
+      <c r="S28" s="64"/>
+      <c r="T28" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="U28" s="46"/>
-      <c r="V28" s="52" t="s">
+      <c r="U28" s="64"/>
+      <c r="V28" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="52"/>
+      <c r="W28" s="78"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
@@ -11663,53 +11586,53 @@
     </row>
     <row r="29" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="45" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="64"/>
+      <c r="F29" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="45" t="s">
+      <c r="G29" s="66"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="45" t="s">
+      <c r="K29" s="64"/>
+      <c r="L29" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="M29" s="46"/>
-      <c r="N29" s="45" t="s">
+      <c r="M29" s="64"/>
+      <c r="N29" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="O29" s="46"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
-      <c r="R29" s="50" t="s">
+      <c r="O29" s="64"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50" t="s">
+      <c r="S29" s="18"/>
+      <c r="T29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="U29" s="50"/>
-      <c r="V29" s="51" t="s">
+      <c r="U29" s="18"/>
+      <c r="V29" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="W29" s="51"/>
-      <c r="Z29" s="53" t="s">
+      <c r="W29" s="77"/>
+      <c r="Z29" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="AA29" s="53"/>
+      <c r="AA29" s="67"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
@@ -11731,59 +11654,59 @@
     </row>
     <row r="30" spans="1:49" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="16" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="66"/>
       <c r="H30" s="47" t="s">
         <v>91</v>
       </c>
       <c r="I30" s="47"/>
-      <c r="J30" s="49" t="s">
+      <c r="J30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="16" t="s">
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="45" t="s">
+      <c r="Q30" s="66"/>
+      <c r="R30" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="S30" s="46"/>
-      <c r="T30" s="45" t="s">
+      <c r="S30" s="64"/>
+      <c r="T30" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="U30" s="46"/>
+      <c r="U30" s="64"/>
       <c r="V30" s="47" t="s">
         <v>116</v>
       </c>
       <c r="W30" s="47"/>
       <c r="X30" s="1"/>
-      <c r="Z30" s="53" t="s">
+      <c r="Z30" s="67" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="53"/>
-      <c r="AB30" s="16" t="s">
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="65" t="s">
         <v>112</v>
       </c>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="16" t="s">
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="AE30" s="17"/>
+      <c r="AE30" s="66"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -11806,44 +11729,44 @@
     </row>
     <row r="33" spans="1:49" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="29" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="29" t="s">
+      <c r="E33" s="32"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="29" t="s">
+      <c r="H33" s="32"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="29" t="s">
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="N33" s="30"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="29" t="s">
+      <c r="N33" s="32"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="29" t="s">
+      <c r="Q33" s="32"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="T33" s="30"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="32" t="s">
+      <c r="T33" s="32"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="W33" s="33"/>
+      <c r="W33" s="30"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -11922,6 +11845,202 @@
     </row>
   </sheetData>
   <mergeCells count="220">
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="J8:O8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="V20:W20"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="V22:W22"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="AC29:AD29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="V28:W28"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="F34:S34"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:W19"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -11946,202 +12065,6 @@
     <mergeCell ref="K27:L27"/>
     <mergeCell ref="M27:N27"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="J16:O16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="V34:W34"/>
-    <mergeCell ref="F34:S34"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="AC29:AD29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="V28:W28"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="V22:W22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="J8:O8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="T7:U7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
